--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1256475.38189596</v>
+        <v>1252463.579163863</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140345</v>
+        <v>6432656.960140341</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4701993.421158107</v>
+        <v>4701993.421158108</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>14.09849947640607</v>
       </c>
       <c r="Y11" t="n">
-        <v>349.2656294801608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T12" t="n">
         <v>136.1757056744559</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>33.00099667026407</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
@@ -1587,13 +1587,13 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>163.4500464211468</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>356.0646040305709</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>173.4779215309406</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>92.05003690140326</v>
       </c>
       <c r="H15" t="n">
-        <v>42.57408601892043</v>
+        <v>42.57408601892042</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304345</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>15.75775879579411</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.097464026797</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>63.26808253165672</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>389.3452756638462</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T17" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U17" t="n">
-        <v>255.612391572116</v>
+        <v>217.9718527864339</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>26.62073320630297</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>140.1918251770602</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>152.8999186087154</v>
@@ -2058,7 +2058,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>185.0347067058678</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>244.9726946029027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.63220474137481</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.097464026797</v>
+        <v>174.3996847359036</v>
       </c>
       <c r="U22" t="n">
         <v>277.3339849899809</v>
@@ -2320,22 +2320,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>336.6466109322077</v>
+        <v>144.938972041317</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T23" t="n">
         <v>210.0177446442482</v>
@@ -2377,13 +2377,13 @@
         <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>224.081614518768</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>285.805035541671</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.3085625684984</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2797,10 +2797,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>8.667530646470581</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>255.612391572116</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>164.3043310616061</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>162.2802901214332</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>22.99866282661722</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T32" t="n">
         <v>210.0177446442482</v>
@@ -3094,10 +3094,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>367.1687897402913</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>214.4761632390908</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.5164813097186</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
         <v>71.96559361603954</v>
@@ -3474,13 +3474,13 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3339849899809</v>
+        <v>239.7111344446714</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>161.6520658226412</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>230.5294642217287</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>141.8120347021375</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>47.60436606887246</v>
       </c>
       <c r="T40" t="n">
         <v>237.097464026797</v>
@@ -3720,7 +3720,7 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>231.1875312436916</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3793,22 +3793,22 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>349.5172411744273</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>60.98226384378319</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>125.6923903011001</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
         <v>71.96559361603954</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>45.52262477672505</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>338.7232859504541</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>149.3595538761767</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>71.96559361603954</v>
@@ -4188,7 +4188,7 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>65.77875017782483</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
         <v>277.3339849899809</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>894.7803300931902</v>
+        <v>891.17222092149</v>
       </c>
       <c r="C11" t="n">
-        <v>467.8796001064903</v>
+        <v>891.17222092149</v>
       </c>
       <c r="D11" t="n">
         <v>467.8796001064903</v>
@@ -5029,64 +5029,64 @@
         <v>467.8796001064903</v>
       </c>
       <c r="F11" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="G11" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072048</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610006</v>
       </c>
       <c r="L11" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848326</v>
       </c>
       <c r="M11" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N11" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S11" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T11" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U11" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V11" t="n">
-        <v>2079.142258348449</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="W11" t="n">
-        <v>2079.142258348449</v>
+        <v>1325.261493775046</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.422259516196</v>
+        <v>1311.02058521302</v>
       </c>
       <c r="Y11" t="n">
-        <v>1314.62869438472</v>
+        <v>1311.02058521302</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C12" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D12" t="n">
         <v>377.0871448858306</v>
@@ -5111,37 +5111,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G12" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377161</v>
+        <v>299.0104088577477</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059643</v>
+        <v>446.8013632259961</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283641</v>
+        <v>653.0519528483959</v>
       </c>
       <c r="M12" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038974</v>
       </c>
       <c r="N12" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O12" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P12" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q12" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R12" t="n">
         <v>1815.649874842555</v>
@@ -5162,10 +5162,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X12" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y12" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.8470976898196</v>
+        <v>248.0623214879483</v>
       </c>
       <c r="C13" t="n">
-        <v>618.8745345687356</v>
+        <v>76.08975836686429</v>
       </c>
       <c r="D13" t="n">
-        <v>618.8745345687356</v>
+        <v>76.08975836686429</v>
       </c>
       <c r="E13" t="n">
-        <v>452.6663287215891</v>
+        <v>76.08975836686429</v>
       </c>
       <c r="F13" t="n">
-        <v>280.8045544961495</v>
+        <v>76.08975836686429</v>
       </c>
       <c r="G13" t="n">
-        <v>115.4479370999708</v>
+        <v>76.08975836686429</v>
       </c>
       <c r="H13" t="n">
-        <v>115.4479370999708</v>
+        <v>76.08975836686429</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484806</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L13" t="n">
-        <v>899.647127896349</v>
+        <v>859.6023110688373</v>
       </c>
       <c r="M13" t="n">
-        <v>1428.745429307994</v>
+        <v>1388.700612480482</v>
       </c>
       <c r="N13" t="n">
-        <v>1901.228790463881</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O13" t="n">
-        <v>2003.682813232011</v>
+        <v>2003.682813232013</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563499</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.27866519234</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.143326818622</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V13" t="n">
-        <v>1457.143326818622</v>
+        <v>1181.987358891954</v>
       </c>
       <c r="W13" t="n">
-        <v>1182.290922991135</v>
+        <v>907.1349550644668</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.189866000078</v>
+        <v>664.5710585102719</v>
       </c>
       <c r="Y13" t="n">
-        <v>790.8470976898196</v>
+        <v>438.2282902000139</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1043.610144261839</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="C14" t="n">
-        <v>1043.610144261839</v>
+        <v>1719.481042155954</v>
       </c>
       <c r="D14" t="n">
-        <v>620.317523446839</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="E14" t="n">
-        <v>620.317523446839</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F14" t="n">
-        <v>620.317523446839</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G14" t="n">
-        <v>217.9856420645173</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I14" t="n">
         <v>84.39494262103608</v>
@@ -5281,49 +5281,49 @@
         <v>222.2360596072045</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L14" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848327</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N14" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S14" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T14" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U14" t="n">
-        <v>1820.947923427119</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V14" t="n">
-        <v>1463.458508553369</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W14" t="n">
-        <v>1463.458508553369</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X14" t="n">
-        <v>1463.458508553369</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.458508553369</v>
+        <v>2079.14225834845</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C15" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D15" t="n">
         <v>377.0871448858306</v>
@@ -5348,37 +5348,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G15" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745214</v>
+        <v>86.44169614186403</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577477</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059644</v>
+        <v>446.801363225996</v>
       </c>
       <c r="L15" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483959</v>
       </c>
       <c r="M15" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038974</v>
       </c>
       <c r="N15" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O15" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P15" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5399,10 +5399,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X15" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y15" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>610.3295332165253</v>
+        <v>402.5066837189738</v>
       </c>
       <c r="C16" t="n">
-        <v>610.3295332165253</v>
+        <v>230.5341205978898</v>
       </c>
       <c r="D16" t="n">
-        <v>447.012760343296</v>
+        <v>230.5341205978898</v>
       </c>
       <c r="E16" t="n">
-        <v>280.8045544961495</v>
+        <v>230.5341205978898</v>
       </c>
       <c r="F16" t="n">
-        <v>280.8045544961495</v>
+        <v>58.67234637245019</v>
       </c>
       <c r="G16" t="n">
-        <v>115.4479370999708</v>
+        <v>58.67234637245019</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4479370999708</v>
+        <v>58.67234637245019</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J16" t="n">
-        <v>162.6349221330689</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K16" t="n">
-        <v>491.6854607613571</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L16" t="n">
-        <v>601.1799509534051</v>
+        <v>977.5688445445702</v>
       </c>
       <c r="M16" t="n">
-        <v>1130.278252365049</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N16" t="n">
-        <v>1642.80643034845</v>
+        <v>1621.162401097735</v>
       </c>
       <c r="O16" t="n">
-        <v>1852.309315854112</v>
+        <v>1723.616423865865</v>
       </c>
       <c r="P16" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.27866519234</v>
+        <v>1898.278526888669</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.143326818622</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V16" t="n">
-        <v>1175.431859426651</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W16" t="n">
-        <v>900.5794555991638</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X16" t="n">
-        <v>836.6723015267833</v>
+        <v>819.0154207412974</v>
       </c>
       <c r="Y16" t="n">
-        <v>610.3295332165253</v>
+        <v>592.6726524310394</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>859.3260953369975</v>
+        <v>892.9487690975901</v>
       </c>
       <c r="C17" t="n">
-        <v>859.3260953369975</v>
+        <v>466.0480391108902</v>
       </c>
       <c r="D17" t="n">
-        <v>436.0334745219977</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="E17" t="n">
-        <v>436.0334745219977</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="F17" t="n">
-        <v>436.0334745219977</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="G17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103585</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072044</v>
+        <v>222.236059607204</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715609998</v>
       </c>
       <c r="L17" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N17" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977128</v>
       </c>
       <c r="Q17" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T17" t="n">
-        <v>1925.631778790233</v>
+        <v>1867.003122344159</v>
       </c>
       <c r="U17" t="n">
-        <v>1667.437443868903</v>
+        <v>1646.829533670994</v>
       </c>
       <c r="V17" t="n">
-        <v>1667.437443868903</v>
+        <v>1289.340118797243</v>
       </c>
       <c r="W17" t="n">
-        <v>1271.04609416925</v>
+        <v>892.9487690975901</v>
       </c>
       <c r="X17" t="n">
-        <v>859.3260953369975</v>
+        <v>892.9487690975901</v>
       </c>
       <c r="Y17" t="n">
-        <v>859.3260953369975</v>
+        <v>892.9487690975901</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G18" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772931</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577477</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259961</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483959</v>
       </c>
       <c r="M18" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038974</v>
       </c>
       <c r="N18" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O18" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P18" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.5068220226462</v>
+        <v>528.1976598616668</v>
       </c>
       <c r="C19" t="n">
-        <v>241.5068220226462</v>
+        <v>356.2250967405828</v>
       </c>
       <c r="D19" t="n">
-        <v>241.5068220226462</v>
+        <v>356.2250967405828</v>
       </c>
       <c r="E19" t="n">
-        <v>214.6171925213301</v>
+        <v>356.2250967405828</v>
       </c>
       <c r="F19" t="n">
-        <v>42.75541829589048</v>
+        <v>184.3633225151432</v>
       </c>
       <c r="G19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J19" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484812</v>
       </c>
       <c r="K19" t="n">
-        <v>244.4028516473351</v>
+        <v>413.7637441131363</v>
       </c>
       <c r="L19" t="n">
-        <v>353.897341839383</v>
+        <v>899.6471278963493</v>
       </c>
       <c r="M19" t="n">
-        <v>882.9956432510278</v>
+        <v>1428.745429307994</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.396764209472</v>
+        <v>1543.240684449514</v>
       </c>
       <c r="O19" t="n">
-        <v>1539.553111280806</v>
+        <v>1645.694707217644</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.87886150226</v>
+        <v>1936.878861502261</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563499</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818623</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.431859426652</v>
+        <v>1462.122697265672</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991647</v>
+        <v>1187.270293438185</v>
       </c>
       <c r="X19" t="n">
-        <v>658.0155590449698</v>
+        <v>944.7063968839904</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.6727907347118</v>
+        <v>718.3636285737324</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1573.500757161562</v>
+        <v>871.9880296649121</v>
       </c>
       <c r="C20" t="n">
-        <v>1573.500757161562</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="D20" t="n">
-        <v>1573.500757161562</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E20" t="n">
-        <v>1147.523817309419</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F20" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103622</v>
       </c>
       <c r="J20" t="n">
         <v>222.2360596072046</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848324</v>
       </c>
       <c r="M20" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N20" t="n">
         <v>1332.070421635641</v>
@@ -5770,34 +5770,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977128</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="S20" t="n">
         <v>2079.14225834845</v>
       </c>
       <c r="T20" t="n">
-        <v>2079.14225834845</v>
+        <v>1867.003122344159</v>
       </c>
       <c r="U20" t="n">
-        <v>1820.94792342712</v>
+        <v>1867.003122344159</v>
       </c>
       <c r="V20" t="n">
-        <v>1820.94792342712</v>
+        <v>1680.099378196818</v>
       </c>
       <c r="W20" t="n">
-        <v>1820.94792342712</v>
+        <v>1283.708028497165</v>
       </c>
       <c r="X20" t="n">
-        <v>1820.94792342712</v>
+        <v>871.9880296649121</v>
       </c>
       <c r="Y20" t="n">
-        <v>1573.500757161562</v>
+        <v>871.9880296649121</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772931</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L21" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M21" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N21" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>386.589755642414</v>
+        <v>459.2822744464944</v>
       </c>
       <c r="C22" t="n">
-        <v>214.6171925213301</v>
+        <v>287.3097113254104</v>
       </c>
       <c r="D22" t="n">
-        <v>214.6171925213301</v>
+        <v>287.3097113254104</v>
       </c>
       <c r="E22" t="n">
-        <v>214.6171925213301</v>
+        <v>287.3097113254104</v>
       </c>
       <c r="F22" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="G22" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H22" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J22" t="n">
         <v>162.634922133069</v>
       </c>
       <c r="K22" t="n">
-        <v>244.4028516473351</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>730.286235430548</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M22" t="n">
-        <v>944.9015090679522</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N22" t="n">
-        <v>1059.396764209472</v>
+        <v>1901.228790463883</v>
       </c>
       <c r="O22" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232013</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.25235888016</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329223</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.278665192341</v>
+        <v>1955.054117616189</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818623</v>
+        <v>1674.918779242471</v>
       </c>
       <c r="V22" t="n">
-        <v>1175.431859426652</v>
+        <v>1393.2073118505</v>
       </c>
       <c r="W22" t="n">
-        <v>900.5794555991647</v>
+        <v>1118.354908023013</v>
       </c>
       <c r="X22" t="n">
-        <v>658.0155590449698</v>
+        <v>875.7910114688179</v>
       </c>
       <c r="Y22" t="n">
-        <v>431.6727907347118</v>
+        <v>649.44824315856</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1252.995442670109</v>
+        <v>483.7860289641056</v>
       </c>
       <c r="C23" t="n">
-        <v>826.0947126834092</v>
+        <v>483.7860289641056</v>
       </c>
       <c r="D23" t="n">
-        <v>826.0947126834092</v>
+        <v>483.7860289641056</v>
       </c>
       <c r="E23" t="n">
-        <v>400.1177728312667</v>
+        <v>483.7860289641056</v>
       </c>
       <c r="F23" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G23" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H23" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J23" t="n">
-        <v>239.551332392876</v>
+        <v>443.9121332502909</v>
       </c>
       <c r="K23" t="n">
-        <v>454.3844443466718</v>
+        <v>658.7452452040868</v>
       </c>
       <c r="L23" t="n">
-        <v>726.9004528705036</v>
+        <v>931.2612537279188</v>
       </c>
       <c r="M23" t="n">
-        <v>1386.038561855856</v>
+        <v>1239.634105008736</v>
       </c>
       <c r="N23" t="n">
-        <v>1700.150952125847</v>
+        <v>1553.746495278727</v>
       </c>
       <c r="O23" t="n">
-        <v>1994.591395126371</v>
+        <v>1848.186938279251</v>
       </c>
       <c r="P23" t="n">
-        <v>2737.9661972607</v>
+        <v>2093.878631620213</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R23" t="n">
         <v>3003.534554078097</v>
@@ -6025,16 +6025,16 @@
         <v>2474.572426706402</v>
       </c>
       <c r="V23" t="n">
-        <v>2474.572426706402</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W23" t="n">
-        <v>2078.181077006749</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X23" t="n">
-        <v>2078.181077006749</v>
+        <v>1308.971663300745</v>
       </c>
       <c r="Y23" t="n">
-        <v>1672.843806961639</v>
+        <v>903.6343932556357</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M24" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N24" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O24" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6126,19 +6126,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851346</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119053</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647588</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393194</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H25" t="n">
         <v>132.7632098856423</v>
@@ -6147,13 +6147,13 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705196</v>
       </c>
       <c r="K25" t="n">
-        <v>397.2373026266569</v>
+        <v>431.0790168988077</v>
       </c>
       <c r="L25" t="n">
-        <v>883.1206864098698</v>
+        <v>883.1206864098697</v>
       </c>
       <c r="M25" t="n">
         <v>1412.632225509645</v>
@@ -6174,25 +6174,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.534692381769</v>
+        <v>2842.53469238177</v>
       </c>
       <c r="T25" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U25" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.779198328542</v>
+        <v>1523.779198328543</v>
       </c>
       <c r="Y25" t="n">
-        <v>1297.436430018284</v>
+        <v>1297.436430018285</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1814.476776080563</v>
+        <v>1878.600214178788</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.131710910091</v>
+        <v>1451.699484192088</v>
       </c>
       <c r="D26" t="n">
-        <v>1164.839090095091</v>
+        <v>1028.406863377088</v>
       </c>
       <c r="E26" t="n">
-        <v>1164.839090095091</v>
+        <v>739.714908284491</v>
       </c>
       <c r="F26" t="n">
         <v>739.714908284491</v>
@@ -6223,25 +6223,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J26" t="n">
         <v>239.551332392876</v>
       </c>
       <c r="K26" t="n">
-        <v>454.3844443466718</v>
+        <v>982.926134527205</v>
       </c>
       <c r="L26" t="n">
-        <v>1197.759246481001</v>
+        <v>1255.442143051037</v>
       </c>
       <c r="M26" t="n">
-        <v>1506.132097761818</v>
+        <v>1563.814994331854</v>
       </c>
       <c r="N26" t="n">
-        <v>2197.834060919214</v>
+        <v>1877.927384601845</v>
       </c>
       <c r="O26" t="n">
-        <v>2492.274503919738</v>
+        <v>2172.367827602369</v>
       </c>
       <c r="P26" t="n">
         <v>2737.9661972607</v>
@@ -6253,25 +6253,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>3003.534554078097</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="V26" t="n">
-        <v>2646.045139204346</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="W26" t="n">
-        <v>2646.045139204346</v>
+        <v>2290.32021301104</v>
       </c>
       <c r="X26" t="n">
-        <v>2234.325140372093</v>
+        <v>1878.600214178788</v>
       </c>
       <c r="Y26" t="n">
-        <v>2234.325140372093</v>
+        <v>1878.600214178788</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965737</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119062</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5545278431414</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H28" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I28" t="n">
         <v>60.07069108156194</v>
@@ -6393,13 +6393,13 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M28" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N28" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O28" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P28" t="n">
         <v>2802.642500785833</v>
@@ -6408,28 +6408,28 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W28" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y28" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1344.143305154943</v>
+        <v>1338.072542731004</v>
       </c>
       <c r="C29" t="n">
-        <v>917.2425751682429</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="D29" t="n">
-        <v>493.9499543532431</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E29" t="n">
-        <v>493.9499543532431</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F29" t="n">
-        <v>68.82577254264334</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G29" t="n">
-        <v>68.82577254264334</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J29" t="n">
         <v>239.551332392876</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466718</v>
+        <v>454.3844443466719</v>
       </c>
       <c r="L29" t="n">
-        <v>726.9004528705036</v>
+        <v>726.9004528705038</v>
       </c>
       <c r="M29" t="n">
         <v>1035.273304151321</v>
@@ -6490,25 +6490,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2791.395418073806</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U29" t="n">
-        <v>2533.201083152476</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="V29" t="n">
-        <v>2175.711668278725</v>
+        <v>2329.222147836943</v>
       </c>
       <c r="W29" t="n">
-        <v>2175.711668278725</v>
+        <v>2163.258177067644</v>
       </c>
       <c r="X29" t="n">
-        <v>1763.991669446473</v>
+        <v>2163.258177067644</v>
       </c>
       <c r="Y29" t="n">
-        <v>1763.991669446473</v>
+        <v>1757.920907022534</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M30" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1107.270461306219</v>
+        <v>1107.27046130622</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851355</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119062</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647598</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393203</v>
       </c>
       <c r="G31" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431414</v>
       </c>
       <c r="H31" t="n">
-        <v>132.7632098856423</v>
+        <v>132.7632098856425</v>
       </c>
       <c r="I31" t="n">
         <v>60.07069108156194</v>
@@ -6630,28 +6630,28 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O31" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P31" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R31" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S31" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T31" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U31" t="n">
         <v>2322.906966102196</v>
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1336.240981735404</v>
+        <v>903.6343932556357</v>
       </c>
       <c r="C32" t="n">
-        <v>909.3402517487041</v>
+        <v>903.6343932556357</v>
       </c>
       <c r="D32" t="n">
-        <v>486.0476309337044</v>
+        <v>903.6343932556357</v>
       </c>
       <c r="E32" t="n">
-        <v>60.07069108156194</v>
+        <v>903.6343932556357</v>
       </c>
       <c r="F32" t="n">
-        <v>60.07069108156194</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G32" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J32" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L32" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>1778.64810628565</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O32" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P32" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q32" t="n">
         <v>2914.642355556173</v>
@@ -6727,25 +6727,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>2980.303581525958</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>2768.164445521667</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U32" t="n">
-        <v>2509.970110600338</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V32" t="n">
-        <v>2152.480695726587</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W32" t="n">
-        <v>1756.089346026934</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X32" t="n">
-        <v>1756.089346026934</v>
+        <v>1308.971663300745</v>
       </c>
       <c r="Y32" t="n">
-        <v>1756.089346026934</v>
+        <v>903.6343932556357</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M33" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O33" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P33" t="n">
         <v>1573.755009897445</v>
@@ -6861,22 +6861,22 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>397.2373026266569</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>883.1206864098698</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O34" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P34" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1262.902544357266</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="C35" t="n">
-        <v>1262.902544357266</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="D35" t="n">
-        <v>839.6099235422666</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="E35" t="n">
-        <v>413.6329836901242</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="F35" t="n">
-        <v>42.75541829589048</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589048</v>
+        <v>259.3980074262852</v>
       </c>
       <c r="H35" t="n">
         <v>42.75541829589048</v>
@@ -6940,10 +6940,10 @@
         <v>222.2360596072046</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610011</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848329</v>
       </c>
       <c r="M35" t="n">
         <v>1017.95803136565</v>
@@ -6970,19 +6970,19 @@
         <v>2079.14225834845</v>
       </c>
       <c r="U35" t="n">
-        <v>2079.14225834845</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V35" t="n">
-        <v>2079.14225834845</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="W35" t="n">
-        <v>1682.750908648796</v>
+        <v>1067.067158853717</v>
       </c>
       <c r="X35" t="n">
-        <v>1682.750908648796</v>
+        <v>1067.067158853717</v>
       </c>
       <c r="Y35" t="n">
-        <v>1682.750908648796</v>
+        <v>661.7298888086069</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J36" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K36" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L36" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M36" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
         <v>1668.279192602594</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>281.6561429471172</v>
+        <v>1089.955188520548</v>
       </c>
       <c r="C37" t="n">
-        <v>281.6561429471172</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D37" t="n">
-        <v>281.6561429471172</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E37" t="n">
-        <v>115.4479370999708</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F37" t="n">
-        <v>115.4479370999708</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G37" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H37" t="n">
         <v>115.4479370999708</v>
@@ -7101,19 +7101,19 @@
         <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>415.8032076563076</v>
+        <v>275.9756251911622</v>
       </c>
       <c r="M37" t="n">
-        <v>944.9015090679522</v>
+        <v>805.0739266028069</v>
       </c>
       <c r="N37" t="n">
-        <v>1059.396764209472</v>
+        <v>1317.602104586207</v>
       </c>
       <c r="O37" t="n">
-        <v>1539.553111280806</v>
+        <v>1797.75845165754</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q37" t="n">
         <v>2137.770914794524</v>
@@ -7122,25 +7122,25 @@
         <v>2131.215415329222</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.278665192341</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818623</v>
+        <v>1889.082956294201</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.431859426652</v>
+        <v>1607.371488902229</v>
       </c>
       <c r="W37" t="n">
-        <v>900.5794555991647</v>
+        <v>1332.519085074742</v>
       </c>
       <c r="X37" t="n">
-        <v>658.0155590449698</v>
+        <v>1089.955188520548</v>
       </c>
       <c r="Y37" t="n">
-        <v>431.6727907347118</v>
+        <v>1089.955188520548</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1312.585280457884</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="C38" t="n">
-        <v>885.6845504711844</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="D38" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E38" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F38" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H38" t="n">
         <v>42.75541829589048</v>
@@ -7177,22 +7177,22 @@
         <v>222.2360596072046</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610011</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848329</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N38" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q38" t="n">
         <v>2048.8787162726</v>
@@ -7201,25 +7201,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U38" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="V38" t="n">
-        <v>2137.770914794524</v>
+        <v>1509.513707470408</v>
       </c>
       <c r="W38" t="n">
-        <v>2137.770914794524</v>
+        <v>1509.513707470408</v>
       </c>
       <c r="X38" t="n">
-        <v>2137.770914794524</v>
+        <v>1097.793708638155</v>
       </c>
       <c r="Y38" t="n">
-        <v>1732.433644749414</v>
+        <v>864.9356639697422</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J39" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K39" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L39" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M39" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>523.2182894146174</v>
+        <v>580.7642337778453</v>
       </c>
       <c r="C40" t="n">
-        <v>523.2182894146174</v>
+        <v>580.7642337778453</v>
       </c>
       <c r="D40" t="n">
-        <v>523.2182894146174</v>
+        <v>417.447460904616</v>
       </c>
       <c r="E40" t="n">
-        <v>379.9738099175088</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="F40" t="n">
-        <v>208.1120356920692</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G40" t="n">
-        <v>42.75541829589048</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I40" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="J40" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K40" t="n">
-        <v>221.0319991956869</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L40" t="n">
-        <v>330.5264893877348</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M40" t="n">
-        <v>859.6247907993795</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N40" t="n">
-        <v>1372.15296878278</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O40" t="n">
-        <v>1852.309315854113</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P40" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q40" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S40" t="n">
-        <v>1976.771053098196</v>
+        <v>2089.685696543138</v>
       </c>
       <c r="T40" t="n">
-        <v>1737.278665192341</v>
+        <v>1850.193308637282</v>
       </c>
       <c r="U40" t="n">
-        <v>1457.143326818623</v>
+        <v>1570.057970263564</v>
       </c>
       <c r="V40" t="n">
-        <v>1457.143326818623</v>
+        <v>1288.346502871593</v>
       </c>
       <c r="W40" t="n">
-        <v>1182.290922991136</v>
+        <v>1013.494099044106</v>
       </c>
       <c r="X40" t="n">
-        <v>939.7270264369409</v>
+        <v>770.9302024899109</v>
       </c>
       <c r="Y40" t="n">
-        <v>713.384258126683</v>
+        <v>770.9302024899109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>701.4023589385019</v>
+        <v>1320.757269945333</v>
       </c>
       <c r="C41" t="n">
-        <v>467.8796001064903</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="D41" t="n">
-        <v>467.8796001064903</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E41" t="n">
         <v>467.8796001064903</v>
@@ -7411,25 +7411,25 @@
         <v>84.39494262103619</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072053</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610011</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848329</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N41" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q41" t="n">
         <v>2048.8787162726</v>
@@ -7441,22 +7441,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U41" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V41" t="n">
-        <v>1509.513707470408</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W41" t="n">
-        <v>1113.122357770755</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X41" t="n">
-        <v>701.4023589385019</v>
+        <v>1726.094539990442</v>
       </c>
       <c r="Y41" t="n">
-        <v>701.4023589385019</v>
+        <v>1320.757269945333</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>62.98439029745215</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283642</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838656</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N42" t="n">
-        <v>992.5205257180611</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.01238974092</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P42" t="n">
-        <v>1399.453043391742</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q42" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>749.5610577248754</v>
+        <v>926.6384156473184</v>
       </c>
       <c r="C43" t="n">
-        <v>577.5884946037913</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="D43" t="n">
-        <v>414.271721730562</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E43" t="n">
-        <v>414.271721730562</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F43" t="n">
-        <v>242.4099475051225</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G43" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H43" t="n">
         <v>115.4479370999708</v>
@@ -7569,25 +7569,25 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K43" t="n">
-        <v>413.7637441131362</v>
+        <v>244.4028516473351</v>
       </c>
       <c r="L43" t="n">
-        <v>523.2582343051843</v>
+        <v>353.897341839383</v>
       </c>
       <c r="M43" t="n">
-        <v>1052.356535716829</v>
+        <v>882.9956432510278</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.884713700229</v>
+        <v>1395.523821234428</v>
       </c>
       <c r="O43" t="n">
-        <v>1852.309315854113</v>
+        <v>1875.680168305762</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>1960.249713953908</v>
       </c>
       <c r="Q43" t="n">
         <v>2137.770914794524</v>
@@ -7608,13 +7608,13 @@
         <v>1457.143326818623</v>
       </c>
       <c r="W43" t="n">
-        <v>1182.290922991136</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="X43" t="n">
-        <v>939.7270264369409</v>
+        <v>1214.579430264428</v>
       </c>
       <c r="Y43" t="n">
-        <v>939.7270264369409</v>
+        <v>988.2366619541701</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>870.211481488812</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="C44" t="n">
-        <v>870.211481488812</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D44" t="n">
-        <v>870.211481488812</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E44" t="n">
-        <v>870.211481488812</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F44" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G44" t="n">
         <v>42.75541829589048</v>
@@ -7675,25 +7675,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S44" t="n">
-        <v>2091.788465525105</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>2091.788465525105</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U44" t="n">
-        <v>2091.788465525105</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V44" t="n">
-        <v>2091.788465525105</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W44" t="n">
-        <v>1695.397115825452</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X44" t="n">
-        <v>1695.397115825452</v>
+        <v>1736.997525065163</v>
       </c>
       <c r="Y44" t="n">
-        <v>1290.059845780342</v>
+        <v>1736.997525065163</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C45" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D45" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E45" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F45" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
-        <v>385.1054302494206</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J45" t="n">
-        <v>464.1447550896847</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K45" t="n">
-        <v>611.9357094579329</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L45" t="n">
-        <v>818.1862990803327</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M45" t="n">
-        <v>1062.016500035834</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N45" t="n">
-        <v>1314.641565670029</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1542.133429692889</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1721.57408334371</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.855732839468</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S45" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T45" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U45" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V45" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W45" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y45" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.5560279306989</v>
+        <v>431.6727907347118</v>
       </c>
       <c r="C46" t="n">
-        <v>414.5560279306989</v>
+        <v>431.6727907347118</v>
       </c>
       <c r="D46" t="n">
-        <v>251.2392550574696</v>
+        <v>280.8045544961495</v>
       </c>
       <c r="E46" t="n">
-        <v>251.2392550574696</v>
+        <v>280.8045544961495</v>
       </c>
       <c r="F46" t="n">
-        <v>251.2392550574696</v>
+        <v>280.8045544961495</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2392550574696</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H46" t="n">
         <v>115.4479370999708</v>
@@ -7809,22 +7809,22 @@
         <v>84.71320548484809</v>
       </c>
       <c r="K46" t="n">
-        <v>166.4811349991142</v>
+        <v>343.0420666477859</v>
       </c>
       <c r="L46" t="n">
-        <v>481.8999867656338</v>
+        <v>828.9254504309988</v>
       </c>
       <c r="M46" t="n">
-        <v>1010.998288177278</v>
+        <v>944.9015090679522</v>
       </c>
       <c r="N46" t="n">
-        <v>1523.526466160679</v>
+        <v>1059.396764209472</v>
       </c>
       <c r="O46" t="n">
-        <v>2003.682813232012</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q46" t="n">
         <v>2137.770914794524</v>
@@ -7836,22 +7836,22 @@
         <v>1976.771053098196</v>
       </c>
       <c r="T46" t="n">
-        <v>1910.327871100394</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U46" t="n">
-        <v>1630.192532726675</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="V46" t="n">
-        <v>1348.481065334704</v>
+        <v>1175.431859426652</v>
       </c>
       <c r="W46" t="n">
-        <v>1073.628661507217</v>
+        <v>900.5794555991647</v>
       </c>
       <c r="X46" t="n">
-        <v>831.0647649530224</v>
+        <v>658.0155590449698</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.7219966427645</v>
+        <v>431.6727907347118</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>134.878169571333</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>265.0931252575134</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>261.0326869852848</v>
       </c>
       <c r="M13" t="n">
-        <v>417.2951947219101</v>
+        <v>417.2951947219104</v>
       </c>
       <c r="N13" t="n">
-        <v>361.6041474892601</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>134.8781695713329</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.29519472191</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>108.1301643813459</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>282.8953427940883</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>134.878169571333</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219104</v>
       </c>
       <c r="N19" t="n">
-        <v>62.53117759285298</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>208.701624885323</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>99.63557070752603</v>
+        <v>417.2951947219104</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>282.8953427940887</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>206.4250513711261</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>354.3083411156918</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>502.710210902391</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>136.888058781465</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>346.0072518373879</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>533.8804951318516</v>
       </c>
       <c r="L26" t="n">
-        <v>475.6149430409062</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>381.4036089771762</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>323.1380568862306</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K27" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10050,7 +10050,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>203.0230036898344</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>360.2014738739058</v>
+        <v>360.2014738739056</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891631</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,16 +10360,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>433.5983958225633</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>423.4201561955193</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>461.3324725154296</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>136.888058781465</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891631</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.5724178990225</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10749,22 +10749,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>141.2399822880256</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>417.2951947219103</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>208.0044056307796</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>55.10188302684108</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.2951947219103</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>282.8953427940878</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.5724178990225</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11232,13 +11232,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>186.8389690765189</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>129.295600935607</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>178.3443754026987</v>
       </c>
       <c r="L46" t="n">
-        <v>208.0044056307794</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219103</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>393.5042993675241</v>
       </c>
       <c r="Y11" t="n">
-        <v>52.01826786449777</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>38.96459694577546</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>76.68821116750615</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>66.56711865626198</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>101.0612909314607</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>56.20783482024542</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648553</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>176.8701750569962</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>8.96328690465225</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
         <v>274.5392124624013</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>37.64053878568214</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>137.925390582372</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>23.51122604515677</v>
       </c>
       <c r="H19" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>168.8798140191452</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.3112027417559</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.6321042835702</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>62.69777929089344</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>84.22632906028605</v>
+        <v>275.9339679511768</v>
       </c>
       <c r="G23" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>198.5501081680649</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>135.91213491195</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>265.8716818159307</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>228.1231051410505</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>258.5926498710605</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.04370705499643</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>53.7041502522024</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>60.06304922331049</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.74782771522635</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>37.62285054530955</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>257.4076287842085</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>170.7544331229299</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>22.73408908653747</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>105.295552539843</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>191.4441914431413</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>58.08555766950292</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>127.2820451811618</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>38.01066092111684</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,16 +25870,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
         <v>274.5392124624013</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>12.51974510488861</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.0177446442482</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>68.87951289347609</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>12.32405126832032</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26037,10 +26037,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>171.3187138489722</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>326214.3004612611</v>
+        <v>326214.3004612612</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>326214.3004612611</v>
+        <v>326214.3004612612</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>326214.3004612611</v>
+        <v>326214.3004612612</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>326214.3004612611</v>
+        <v>326214.3004612612</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>442267.0597419591</v>
+        <v>442267.059741959</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>442267.0597419591</v>
+        <v>442267.059741959</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>442267.059741959</v>
+        <v>442267.0597419591</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>326214.3004612611</v>
+        <v>326214.3004612612</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>326214.3004612612</v>
+        <v>326214.3004612611</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>326214.3004612612</v>
+        <v>326214.3004612611</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>487693.629700738</v>
       </c>
       <c r="C2" t="n">
-        <v>487693.6297007378</v>
+        <v>487693.6297007379</v>
       </c>
       <c r="D2" t="n">
         <v>487693.6297007379</v>
       </c>
       <c r="E2" t="n">
-        <v>290007.5736252776</v>
+        <v>290007.5736252778</v>
       </c>
       <c r="F2" t="n">
+        <v>290007.5736252778</v>
+      </c>
+      <c r="G2" t="n">
+        <v>290007.5736252779</v>
+      </c>
+      <c r="H2" t="n">
+        <v>290007.5736252778</v>
+      </c>
+      <c r="I2" t="n">
+        <v>363974.793147545</v>
+      </c>
+      <c r="J2" t="n">
+        <v>363974.7931475451</v>
+      </c>
+      <c r="K2" t="n">
+        <v>363974.7931475451</v>
+      </c>
+      <c r="L2" t="n">
+        <v>363974.793147545</v>
+      </c>
+      <c r="M2" t="n">
         <v>290007.5736252777</v>
-      </c>
-      <c r="G2" t="n">
-        <v>290007.5736252778</v>
-      </c>
-      <c r="H2" t="n">
-        <v>290007.5736252777</v>
-      </c>
-      <c r="I2" t="n">
-        <v>363974.7931475449</v>
-      </c>
-      <c r="J2" t="n">
-        <v>363974.793147545</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363974.7931475448</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363974.7931475448</v>
-      </c>
-      <c r="M2" t="n">
-        <v>290007.5736252776</v>
       </c>
       <c r="N2" t="n">
         <v>290007.5736252777</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222536</v>
+        <v>556689.6559222538</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048178</v>
+        <v>57556.18318048169</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160789</v>
+        <v>79247.32527160755</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>321757.302549922</v>
       </c>
       <c r="E4" t="n">
-        <v>19590.20678464904</v>
+        <v>19590.20678464903</v>
       </c>
       <c r="F4" t="n">
         <v>19590.20678464903</v>
@@ -26435,31 +26435,31 @@
         <v>19590.20678464904</v>
       </c>
       <c r="H4" t="n">
+        <v>19590.20678464909</v>
+      </c>
+      <c r="I4" t="n">
+        <v>57457.9143129888</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57457.91431298881</v>
+      </c>
+      <c r="K4" t="n">
+        <v>57457.91431298882</v>
+      </c>
+      <c r="L4" t="n">
+        <v>57457.91431298881</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19590.20678464904</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19590.20678464904</v>
+      </c>
+      <c r="O4" t="n">
         <v>19590.20678464905</v>
       </c>
-      <c r="I4" t="n">
-        <v>57457.91431298884</v>
-      </c>
-      <c r="J4" t="n">
-        <v>57457.91431298883</v>
-      </c>
-      <c r="K4" t="n">
-        <v>57457.91431298884</v>
-      </c>
-      <c r="L4" t="n">
-        <v>57457.91431298884</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19590.20678464905</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19590.20678464905</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>19590.20678464904</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19590.20678464905</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650126</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650126</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650127</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650127</v>
       </c>
       <c r="I5" t="n">
         <v>56429.32173361156</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132308.727150816</v>
+        <v>132287.0135093197</v>
       </c>
       <c r="C6" t="n">
-        <v>132308.7271508158</v>
+        <v>132287.0135093195</v>
       </c>
       <c r="D6" t="n">
-        <v>132308.7271508159</v>
+        <v>132287.0135093196</v>
       </c>
       <c r="E6" t="n">
-        <v>-329542.0034981263</v>
+        <v>-330145.1467163151</v>
       </c>
       <c r="F6" t="n">
-        <v>227147.6524241274</v>
+        <v>226544.5092059387</v>
       </c>
       <c r="G6" t="n">
-        <v>227147.6524241275</v>
+        <v>226544.5092059387</v>
       </c>
       <c r="H6" t="n">
-        <v>227147.6524241274</v>
+        <v>226544.5092059386</v>
       </c>
       <c r="I6" t="n">
-        <v>192531.3739204627</v>
+        <v>192145.7813479278</v>
       </c>
       <c r="J6" t="n">
-        <v>250087.5571009446</v>
+        <v>249701.9645284096</v>
       </c>
       <c r="K6" t="n">
-        <v>250087.5571009444</v>
+        <v>249701.9645284096</v>
       </c>
       <c r="L6" t="n">
-        <v>250087.5571009444</v>
+        <v>249701.9645284094</v>
       </c>
       <c r="M6" t="n">
-        <v>147900.3271525194</v>
+        <v>147297.1839343309</v>
       </c>
       <c r="N6" t="n">
-        <v>227147.6524241274</v>
+        <v>226544.5092059385</v>
       </c>
       <c r="O6" t="n">
-        <v>227147.6524241274</v>
+        <v>226544.5092059385</v>
       </c>
       <c r="P6" t="n">
-        <v>227147.6524241274</v>
+        <v>226544.5092059385</v>
       </c>
     </row>
   </sheetData>
@@ -26746,28 +26746,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="M3" t="n">
         <v>494.2934179644261</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="F4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="G4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986312</v>
       </c>
       <c r="H4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986312</v>
       </c>
       <c r="I4" t="n">
         <v>750.8836385195242</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208934</v>
+        <v>216.440909820893</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777382</v>
+        <v>318.0018188777369</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H11" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J11" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K11" t="n">
-        <v>252.7677441824818</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L11" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N11" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O11" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R11" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H12" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J12" t="n">
         <v>100.4488161921859</v>
@@ -31846,34 +31846,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M12" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P12" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551338</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S12" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L13" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M13" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N13" t="n">
         <v>136.4006738458228</v>
       </c>
       <c r="O13" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P13" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S13" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H14" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J14" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K14" t="n">
-        <v>252.7677441824819</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L14" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112411</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314071</v>
       </c>
       <c r="O14" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454422</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596219</v>
       </c>
       <c r="R14" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118911</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564928</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357953</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,43 +32074,43 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208253</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K15" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244933</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M15" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q15" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551342</v>
       </c>
       <c r="S15" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131457</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842525</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932277</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003427</v>
+        <v>7.92490102900343</v>
       </c>
       <c r="I16" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108726</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507117</v>
+        <v>63.0183592050712</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L16" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M16" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N16" t="n">
         <v>136.4006738458228</v>
@@ -32174,22 +32174,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905003</v>
       </c>
       <c r="S16" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T16" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781248</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,34 +32226,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H17" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J17" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K17" t="n">
-        <v>252.7677441824819</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L17" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O17" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q17" t="n">
         <v>214.5854405596218</v>
@@ -32262,10 +32262,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U17" t="n">
         <v>0.1589687374357952</v>
@@ -32311,7 +32311,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
@@ -32320,34 +32320,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M18" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q18" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551339</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S18" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L19" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M19" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N19" t="n">
         <v>136.4006738458228</v>
@@ -32411,22 +32411,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S19" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T19" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
@@ -32478,16 +32478,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L20" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M20" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O20" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P20" t="n">
         <v>285.7487894273646</v>
@@ -32499,7 +32499,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T20" t="n">
         <v>8.698570601564924</v>
@@ -32548,7 +32548,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
@@ -32581,7 +32581,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U21" t="n">
         <v>0.06994718178741882</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H22" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32648,7 +32648,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q22" t="n">
         <v>74.63830611262834</v>
@@ -32660,10 +32660,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T22" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
@@ -32715,16 +32715,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M23" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O23" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P23" t="n">
         <v>285.7487894273646</v>
@@ -32736,7 +32736,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T23" t="n">
         <v>8.698570601564924</v>
@@ -32785,7 +32785,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
@@ -32818,7 +32818,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U24" t="n">
         <v>0.06994718178741882</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H25" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32885,7 +32885,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q25" t="n">
         <v>74.63830611262834</v>
@@ -32897,10 +32897,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T25" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
@@ -32952,16 +32952,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M26" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O26" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P26" t="n">
         <v>285.7487894273646</v>
@@ -32973,7 +32973,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T26" t="n">
         <v>8.698570601564924</v>
@@ -33022,7 +33022,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
@@ -33055,7 +33055,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U27" t="n">
         <v>0.06994718178741882</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H28" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33122,7 +33122,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q28" t="n">
         <v>74.63830611262834</v>
@@ -33134,10 +33134,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T28" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
@@ -33189,16 +33189,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M29" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O29" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P29" t="n">
         <v>285.7487894273646</v>
@@ -33210,7 +33210,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T29" t="n">
         <v>8.698570601564924</v>
@@ -33259,7 +33259,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
@@ -33292,7 +33292,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U30" t="n">
         <v>0.06994718178741882</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H31" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33359,7 +33359,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q31" t="n">
         <v>74.63830611262834</v>
@@ -33371,10 +33371,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T31" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
@@ -33426,16 +33426,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L32" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M32" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O32" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P32" t="n">
         <v>285.7487894273646</v>
@@ -33447,7 +33447,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T32" t="n">
         <v>8.698570601564924</v>
@@ -33496,7 +33496,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
@@ -33529,7 +33529,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U33" t="n">
         <v>0.06994718178741882</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H34" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33596,7 +33596,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P34" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q34" t="n">
         <v>74.63830611262834</v>
@@ -33608,10 +33608,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T34" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J11" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L11" t="n">
-        <v>275.2686954786179</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2852426969608</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O11" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885254</v>
+        <v>214.7158714301856</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L12" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M12" t="n">
-        <v>511.3862575357976</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O12" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P12" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.38160322116929</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L13" t="n">
-        <v>490.7912967507201</v>
+        <v>371.6331821287677</v>
       </c>
       <c r="M13" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="N13" t="n">
-        <v>477.2559203594825</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O13" t="n">
-        <v>103.4889118870001</v>
+        <v>103.4889118870002</v>
       </c>
       <c r="P13" t="n">
-        <v>85.42378348297615</v>
+        <v>85.42378348297621</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.01874334784338</v>
+        <v>50.01874334784343</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J14" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L14" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786182</v>
       </c>
       <c r="M14" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N14" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969611</v>
       </c>
       <c r="O14" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894181</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q14" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977126</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301855</v>
       </c>
       <c r="K15" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L15" t="n">
-        <v>473.4270541690281</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M15" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O15" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P15" t="n">
         <v>181.2531855058807</v>
@@ -35749,7 +35749,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K16" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L16" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M16" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986311</v>
       </c>
       <c r="N16" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O16" t="n">
-        <v>211.619076268346</v>
+        <v>103.4889118870002</v>
       </c>
       <c r="P16" t="n">
-        <v>85.42378348297616</v>
+        <v>368.3191262770645</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784343</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L17" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969609</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O17" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q17" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301856</v>
       </c>
       <c r="K18" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L18" t="n">
-        <v>473.4270541690281</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M18" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O18" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P18" t="n">
         <v>181.2531855058807</v>
@@ -35986,7 +35986,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116933</v>
       </c>
       <c r="K19" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L19" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M19" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986312</v>
       </c>
       <c r="N19" t="n">
-        <v>178.1829504630754</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O19" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870002</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378323</v>
+        <v>294.1254083682992</v>
       </c>
       <c r="Q19" t="n">
         <v>202.9212659517818</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J20" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L20" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N20" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O20" t="n">
-        <v>297.4145888894187</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171345</v>
       </c>
       <c r="Q20" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885255</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L21" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M21" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O21" t="n">
         <v>229.7897616392516</v>
       </c>
       <c r="P21" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q21" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M22" t="n">
-        <v>216.7831046842467</v>
+        <v>534.4427286986312</v>
       </c>
       <c r="N22" t="n">
-        <v>115.6517728702224</v>
+        <v>398.5471156643111</v>
       </c>
       <c r="O22" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P22" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J23" t="n">
-        <v>139.2334515011802</v>
+        <v>345.6585028723063</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L23" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M23" t="n">
-        <v>665.7960696821737</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N23" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P23" t="n">
-        <v>750.8836385195242</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550238</v>
+        <v>675.2778440992007</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L24" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M24" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O24" t="n">
         <v>229.7897616392516</v>
@@ -36457,10 +36457,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q24" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K25" t="n">
-        <v>219.4819269776934</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>490.7912967507202</v>
+        <v>456.6077469808707</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N25" t="n">
         <v>517.705230286263</v>
@@ -36533,7 +36533,7 @@
         <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q25" t="n">
         <v>202.9212659517818</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J26" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876725</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="L26" t="n">
-        <v>750.8836385195242</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N26" t="n">
-        <v>698.6888516741371</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O26" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171333</v>
+        <v>571.3114845033639</v>
       </c>
       <c r="Q26" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K27" t="n">
-        <v>414.3769175486728</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L27" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O27" t="n">
         <v>229.7897616392516</v>
@@ -36697,7 +36697,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36761,7 +36761,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M28" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N28" t="n">
         <v>517.705230286263</v>
@@ -36770,7 +36770,7 @@
         <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
-        <v>401.3391416378323</v>
+        <v>288.4467871728106</v>
       </c>
       <c r="Q28" t="n">
         <v>202.9212659517818</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J29" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L29" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N29" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O29" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P29" t="n">
-        <v>608.3749014910391</v>
+        <v>608.3749014910388</v>
       </c>
       <c r="Q29" t="n">
         <v>675.2778440992007</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L30" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O30" t="n">
         <v>229.7897616392516</v>
       </c>
       <c r="P30" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q30" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,7 +36998,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N31" t="n">
         <v>517.705230286263</v>
@@ -37007,10 +37007,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148675971</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L32" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N32" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O32" t="n">
-        <v>720.8347450849373</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P32" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550238</v>
+        <v>639.7932384704534</v>
       </c>
       <c r="R32" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L33" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M33" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O33" t="n">
         <v>229.7897616392516</v>
       </c>
       <c r="P33" t="n">
-        <v>339.8256034049031</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q33" t="n">
         <v>112.969146960424</v>
@@ -37229,13 +37229,13 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
-        <v>219.4819269776934</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L34" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M34" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N34" t="n">
         <v>517.705230286263</v>
@@ -37244,10 +37244,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P34" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148675971</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876733</v>
       </c>
       <c r="L35" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664825</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N35" t="n">
         <v>317.2852426969609</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
@@ -37405,7 +37405,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q36" t="n">
-        <v>271.5415648594465</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
         <v>148.85927498986</v>
@@ -37469,22 +37469,22 @@
         <v>82.59386819622839</v>
       </c>
       <c r="L37" t="n">
-        <v>251.8404774315084</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M37" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N37" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O37" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>293.4281891137558</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876733</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
         <v>275.268695478618</v>
@@ -37563,7 +37563,7 @@
         <v>248.1734276171333</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550244</v>
       </c>
       <c r="R38" t="n">
         <v>89.79009951709452</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
@@ -37639,13 +37639,13 @@
         <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q39" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
-        <v>137.6957512230695</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M40" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N40" t="n">
-        <v>517.705230286263</v>
+        <v>398.5471156643102</v>
       </c>
       <c r="O40" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P40" t="n">
         <v>85.42378348297616</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>42.06012558095526</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011809</v>
       </c>
       <c r="K41" t="n">
         <v>217.0031433876725</v>
@@ -37803,7 +37803,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709496</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
@@ -37879,10 +37879,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>271.5415648594465</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K43" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L43" t="n">
         <v>110.6004951434828</v>
@@ -37952,13 +37952,13 @@
         <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
-        <v>290.327880963519</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
         <v>85.42378348297616</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>179.3143442834503</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
@@ -38116,10 +38116,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q45" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>42.3816032211693</v>
       </c>
       <c r="K46" t="n">
-        <v>82.59386819622839</v>
+        <v>260.938243598927</v>
       </c>
       <c r="L46" t="n">
-        <v>318.6049007742622</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M46" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N46" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O46" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P46" t="n">
-        <v>85.42378348297616</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
